--- a/Resource/excel/enter.xlsx
+++ b/Resource/excel/enter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="enter" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NoteId</t>
   </si>
@@ -80,30 +80,18 @@
   <si>
     <t>NewPlayerFunction</t>
   </si>
-  <si>
-    <t>./script/game/steam_activation_code.lua</t>
-  </si>
-  <si>
-    <t>GetSteamActivationCode</t>
-  </si>
-  <si>
-    <t>./script/game/report_invite.lua</t>
-  </si>
-  <si>
-    <t>ReportInvite</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -117,35 +105,92 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -166,109 +219,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +283,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +343,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,157 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +488,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +543,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -549,52 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,152 +594,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,9 +759,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1208,15 +1187,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="3" width="12" style="4" customWidth="1"/>
@@ -1257,8 +1236,8 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1282,8 +1261,8 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1292,8 +1271,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1315,40 +1294,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
